--- a/data/PET_PRI_SPT_S1_A.xlsx
+++ b/data/PET_PRI_SPT_S1_A.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCA006B8-BC6F-254F-A302-64CC6DBCE8DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14140" activeTab="1"/>
+    <workbookView xWindow="4660" yWindow="460" windowWidth="16140" windowHeight="10000"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -16,8 +17,16 @@
     <sheet name="Data 6" sheetId="17" r:id="rId7"/>
     <sheet name="Data 7" sheetId="16" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="80000"/>
+  <calcPr calcId="80000" iterateDelta="9.9999999999994451E-4"/>
   <fileRecoveryPr autoRecover="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -114,13 +123,13 @@
     <t>Release Date:</t>
   </si>
   <si>
-    <t>9/19/2018</t>
+    <t>8/26/2020</t>
   </si>
   <si>
     <t>Next Release Date:</t>
   </si>
   <si>
-    <t>9/26/2018</t>
+    <t>9/2/2020</t>
   </si>
   <si>
     <t>Excel File Name:</t>
@@ -147,7 +156,7 @@
     <t>(202) 586-8800</t>
   </si>
   <si>
-    <t>9/19/2018 10:56:17 AM</t>
+    <t>8/26/2020 10:46:31 AM</t>
   </si>
   <si>
     <t>Data 1: Crude Oil</t>
@@ -471,10 +480,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1" descr="logo-thomsonreuters">
+        <xdr:cNvPr id="1025" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42D82184-1830-7246-AAA7-8DF8D2A5BAD1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3252EBA4-7728-3047-8533-E70EF370D1A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -822,7 +831,7 @@
   </sheetPr>
   <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -896,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F7" s="18">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G7" s="20" t="s">
         <v>18</v>
@@ -916,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="18">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G8" s="20" t="s">
         <v>18</v>
@@ -936,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="18">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G9" s="20" t="s">
         <v>21</v>
@@ -956,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="18">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G10" s="20" t="s">
         <v>18</v>
@@ -976,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="18">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G11" s="20" t="s">
         <v>24</v>
@@ -996,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F12" s="18">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>26</v>
@@ -1016,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F13" s="18">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>28</v>
@@ -1100,9 +1109,9 @@
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -1135,7 +1144,7 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="42" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>46</v>
       </c>
@@ -1497,7 +1506,29 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
+      <c r="A36" s="15">
+        <v>43281</v>
+      </c>
+      <c r="B36">
+        <v>65.23</v>
+      </c>
+      <c r="C36">
+        <v>71.34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="15">
+        <v>43646</v>
+      </c>
+      <c r="B37">
+        <v>56.99</v>
+      </c>
+      <c r="C37">
+        <v>64.3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1514,7 +1545,7 @@
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -1537,7 +1568,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>43</v>
       </c>
@@ -1549,7 +1580,7 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="65" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" ht="70" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>46</v>
       </c>
@@ -1914,7 +1945,29 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
+      <c r="A36" s="15">
+        <v>43281</v>
+      </c>
+      <c r="B36">
+        <v>1.931</v>
+      </c>
+      <c r="C36">
+        <v>1.887</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" s="15">
+        <v>43646</v>
+      </c>
+      <c r="B37">
+        <v>1.75</v>
+      </c>
+      <c r="C37">
+        <v>1.7010000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1931,7 +1984,7 @@
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -1954,7 +2007,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>43</v>
       </c>
@@ -1963,7 +2016,7 @@
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3" ht="65" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="70" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>46</v>
       </c>
@@ -2093,7 +2146,23 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="15"/>
+      <c r="A19" s="15">
+        <v>43281</v>
+      </c>
+      <c r="B19">
+        <v>2.0569999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="15">
+        <v>43646</v>
+      </c>
+      <c r="B20">
+        <v>1.972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2110,7 +2179,7 @@
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -2133,7 +2202,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>43</v>
       </c>
@@ -2142,7 +2211,7 @@
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3" ht="52" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>46</v>
       </c>
@@ -2408,7 +2477,23 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="15"/>
+      <c r="A36" s="15">
+        <v>43281</v>
+      </c>
+      <c r="B36">
+        <v>2.0640000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="15">
+        <v>43646</v>
+      </c>
+      <c r="B37">
+        <v>1.9159999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2425,7 +2510,7 @@
   <sheetPr>
     <tabColor indexed="10"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
@@ -2448,7 +2533,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="24" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>43</v>
       </c>
@@ -2463,7 +2548,7 @@
       </c>
       <c r="E2" s="11"/>
     </row>
-    <row r="3" spans="1:5" ht="65" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="70" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>46</v>
       </c>
@@ -2687,7 +2772,35 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
+      <c r="A21" s="15">
+        <v>43281</v>
+      </c>
+      <c r="B21">
+        <v>2.1019999999999999</v>
+      </c>
+      <c r="C21">
+        <v>2.0470000000000002</v>
+      </c>
+      <c r="D21">
+        <v>2.137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="15">
+        <v>43646</v>
+      </c>
+      <c r="B22">
+        <v>1.94</v>
+      </c>
+      <c r="C22">
+        <v>1.8839999999999999</v>
+      </c>
+      <c r="D22">
+        <v>2.0110000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -2700,6 +2813,305 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor indexed="10"/>
+  </sheetPr>
+  <dimension ref="A1:C34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="11"/>
+    </row>
+    <row r="3" spans="1:3" ht="56" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="15">
+        <v>33054</v>
+      </c>
+      <c r="B4">
+        <v>0.76200000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="15">
+        <v>33419</v>
+      </c>
+      <c r="B5">
+        <v>0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="15">
+        <v>33785</v>
+      </c>
+      <c r="B6">
+        <v>0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="15">
+        <v>34150</v>
+      </c>
+      <c r="B7">
+        <v>0.52900000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="15">
+        <v>34515</v>
+      </c>
+      <c r="B8">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="15">
+        <v>34880</v>
+      </c>
+      <c r="B9">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="15">
+        <v>35246</v>
+      </c>
+      <c r="B10">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="15">
+        <v>35611</v>
+      </c>
+      <c r="B11">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="15">
+        <v>35976</v>
+      </c>
+      <c r="B12">
+        <v>0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="15">
+        <v>36341</v>
+      </c>
+      <c r="B13">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="15">
+        <v>36707</v>
+      </c>
+      <c r="B14">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="15">
+        <v>37072</v>
+      </c>
+      <c r="B15">
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="15">
+        <v>37437</v>
+      </c>
+      <c r="B16">
+        <v>0.68700000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="15">
+        <v>37802</v>
+      </c>
+      <c r="B17">
+        <v>0.82399999999999995</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="15">
+        <v>38168</v>
+      </c>
+      <c r="B18">
+        <v>1.151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="15">
+        <v>38533</v>
+      </c>
+      <c r="B19">
+        <v>1.7150000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="15">
+        <v>38898</v>
+      </c>
+      <c r="B20">
+        <v>1.923</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="15">
+        <v>39263</v>
+      </c>
+      <c r="B21">
+        <v>2.1309999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="15">
+        <v>39629</v>
+      </c>
+      <c r="B22">
+        <v>2.964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="15">
+        <v>39994</v>
+      </c>
+      <c r="B23">
+        <v>1.6639999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="15">
+        <v>40359</v>
+      </c>
+      <c r="B24">
+        <v>2.149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="15">
+        <v>40724</v>
+      </c>
+      <c r="B25">
+        <v>2.9980000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="15">
+        <v>41090</v>
+      </c>
+      <c r="B26">
+        <v>3.056</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="15">
+        <v>41455</v>
+      </c>
+      <c r="B27">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="15">
+        <v>41820</v>
+      </c>
+      <c r="B28">
+        <v>2.6930000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="15">
+        <v>42185</v>
+      </c>
+      <c r="B29">
+        <v>1.522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" s="15">
+        <v>42551</v>
+      </c>
+      <c r="B30">
+        <v>1.252</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="15">
+        <v>42916</v>
+      </c>
+      <c r="B31">
+        <v>1.5580000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="15">
+        <v>43281</v>
+      </c>
+      <c r="B32">
+        <v>2.0270000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="15">
+        <v>43646</v>
+      </c>
+      <c r="B33">
+        <v>1.879</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Contents!A1" display="Back to Contents"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="10"/>
@@ -2724,302 +3136,19 @@
         <v>5</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="26" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3" ht="52" x14ac:dyDescent="0.15">
-      <c r="A3" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="15">
-        <v>33054</v>
-      </c>
-      <c r="B4">
-        <v>0.76200000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="15">
-        <v>33419</v>
-      </c>
-      <c r="B5">
-        <v>0.60799999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="15">
-        <v>33785</v>
-      </c>
-      <c r="B6">
-        <v>0.57199999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="15">
-        <v>34150</v>
-      </c>
-      <c r="B7">
-        <v>0.52900000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="15">
-        <v>34515</v>
-      </c>
-      <c r="B8">
-        <v>0.49299999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="15">
-        <v>34880</v>
-      </c>
-      <c r="B9">
-        <v>0.49399999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="15">
-        <v>35246</v>
-      </c>
-      <c r="B10">
-        <v>0.61099999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="15">
-        <v>35611</v>
-      </c>
-      <c r="B11">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="15">
-        <v>35976</v>
-      </c>
-      <c r="B12">
-        <v>0.40300000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="15">
-        <v>36341</v>
-      </c>
-      <c r="B13">
-        <v>0.498</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="15">
-        <v>36707</v>
-      </c>
-      <c r="B14">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="15">
-        <v>37072</v>
-      </c>
-      <c r="B15">
-        <v>0.72499999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="15">
-        <v>37437</v>
-      </c>
-      <c r="B16">
-        <v>0.68700000000000006</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="15">
-        <v>37802</v>
-      </c>
-      <c r="B17">
-        <v>0.82399999999999995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="15">
-        <v>38168</v>
-      </c>
-      <c r="B18">
-        <v>1.151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="15">
-        <v>38533</v>
-      </c>
-      <c r="B19">
-        <v>1.7150000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="15">
-        <v>38898</v>
-      </c>
-      <c r="B20">
-        <v>1.923</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="15">
-        <v>39263</v>
-      </c>
-      <c r="B21">
-        <v>2.1309999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="15">
-        <v>39629</v>
-      </c>
-      <c r="B22">
-        <v>2.964</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="15">
-        <v>39994</v>
-      </c>
-      <c r="B23">
-        <v>1.6639999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" s="15">
-        <v>40359</v>
-      </c>
-      <c r="B24">
-        <v>2.149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" s="15">
-        <v>40724</v>
-      </c>
-      <c r="B25">
-        <v>2.9980000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="15">
-        <v>41090</v>
-      </c>
-      <c r="B26">
-        <v>3.056</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" s="15">
-        <v>41455</v>
-      </c>
-      <c r="B27">
-        <v>2.92</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" s="15">
-        <v>41820</v>
-      </c>
-      <c r="B28">
-        <v>2.6930000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" s="15">
-        <v>42185</v>
-      </c>
-      <c r="B29">
-        <v>1.522</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="15">
-        <v>42551</v>
-      </c>
-      <c r="B30">
-        <v>1.252</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" s="15">
-        <v>42916</v>
-      </c>
-      <c r="B31">
-        <v>1.5580000000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="15"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Contents!A1" display="Back to Contents"/>
-  </hyperlinks>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor indexed="10"/>
-  </sheetPr>
-  <dimension ref="A1:C30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="3" width="19" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3" ht="52" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="56" x14ac:dyDescent="0.15">
       <c r="A3" s="12" t="s">
         <v>46</v>
       </c>
@@ -3237,7 +3366,23 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" s="15"/>
+      <c r="A30" s="15">
+        <v>43281</v>
+      </c>
+      <c r="B30">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" s="15">
+        <v>43646</v>
+      </c>
+      <c r="B31">
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
